--- a/analysis/dji.xlsx
+++ b/analysis/dji.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t xml:space="preserve">Strategy</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t xml:space="preserve">buy_and_hold_with_threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_and_hold_with_shrinking_threshod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_conservatively_and_hold_with_threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_conservatively_and_hold_with_shrinking_threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_and_hold_with_reentrant_threshold</t>
   </si>
   <si>
     <t xml:space="preserve">sma</t>
@@ -189,7 +201,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -205,7 +217,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,26 +298,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="23.1348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="23.7488372093023"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,34 +658,34 @@
         <v>13</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>0.4169</v>
+        <v>0.1455</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.1792</v>
+        <v>-0.1345</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0404</v>
+        <v>0.0066</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.0208</v>
+        <v>0.0042</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>0.5876</v>
+        <v>0.5417</v>
       </c>
       <c r="H10" s="7" t="n">
-        <v>0.1024</v>
+        <v>0.036</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>0.0825</v>
+        <v>0.0326</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>0.4124</v>
+        <v>0.4582</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-0.048</v>
+        <v>-0.0283</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>-0.0428</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,34 +694,34 @@
         <v>14</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>0.6602</v>
+        <v>0.1455</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.2189</v>
+        <v>-0.1345</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.0844</v>
+        <v>0.0075</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.0682</v>
+        <v>0.0037</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>0.6708</v>
+        <v>0.5411</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>0.161</v>
+        <v>0.035</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>0.1399</v>
+        <v>0.0314</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>0.3292</v>
+        <v>0.4589</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-0.0717</v>
+        <v>-0.025</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>-0.0595</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,34 +730,34 @@
         <v>15</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>1.3548</v>
+        <v>0.116</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-0.2907</v>
+        <v>-0.0924</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.271</v>
+        <v>0.0091</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2102</v>
+        <v>0.004</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>0.8485</v>
+        <v>0.55</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>0.3415</v>
+        <v>0.034</v>
       </c>
       <c r="I12" s="7" t="n">
-        <v>0.242</v>
+        <v>0.0317</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>0.1515</v>
+        <v>0.45</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.1237</v>
+        <v>-0.0212</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>-0.1151</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,34 +766,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>1.6817</v>
+        <v>0.116</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2859</v>
+        <v>-0.0924</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.461</v>
+        <v>0.0104</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.401</v>
+        <v>0.0035</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>0.8906</v>
+        <v>0.5452</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>0.5299</v>
+        <v>0.0344</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>0.4369</v>
+        <v>0.0325</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>0.1094</v>
+        <v>0.4548</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-0.0993</v>
+        <v>-0.0184</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>-0.0906</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -792,34 +804,34 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3803</v>
+        <v>0.2984</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1569</v>
+        <v>-0.1594</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.038</v>
+        <v>0.0387</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0202</v>
+        <v>0.0289</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>0.5857</v>
+        <v>0.6315</v>
       </c>
       <c r="H14" s="7" t="n">
-        <v>0.0968</v>
+        <v>0.0873</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>0.0772</v>
+        <v>0.0797</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>0.4143</v>
+        <v>0.3055</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-0.045</v>
+        <v>-0.0538</v>
       </c>
       <c r="L14" s="8" t="n">
-        <v>-0.0408</v>
+        <v>-0.0478</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,34 +840,34 @@
         <v>14</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6279</v>
+        <v>0.4869</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2127</v>
+        <v>-0.2281</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0784</v>
+        <v>0.081</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.0687</v>
+        <v>0.08</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>0.6762</v>
+        <v>0.7192</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>0.148</v>
+        <v>0.1457</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>0.1288</v>
+        <v>0.129</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>0.3238</v>
+        <v>0.2808</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-0.0668</v>
+        <v>-0.0847</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>-0.056</v>
+        <v>-0.0817</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,34 +876,34 @@
         <v>15</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>1.2646</v>
+        <v>1.099</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.2692</v>
+        <v>-0.2964</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.2438</v>
+        <v>0.2622</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.1952</v>
+        <v>0.2284</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>0.8444</v>
+        <v>0.8069</v>
       </c>
       <c r="H16" s="7" t="n">
-        <v>0.3091</v>
+        <v>0.356</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>0.2302</v>
+        <v>0.274</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>0.1556</v>
+        <v>0.1931</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-0.1105</v>
+        <v>-0.1299</v>
       </c>
       <c r="L16" s="8" t="n">
-        <v>-0.1046</v>
+        <v>-0.1238</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,42 +912,630 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="n">
+        <v>1.4592</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>-0.1849</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.4332</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.2992</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>0.4944</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="J17" s="8" t="n">
+        <v>0.1069</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-0.078</v>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>-0.0772</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0.2435</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>-0.1449</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.0293</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0.5913</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>0.0735</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0.0617</v>
+      </c>
+      <c r="J18" s="8" t="n">
+        <v>0.3457</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-0.0411</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>-0.0361</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9"/>
+      <c r="B19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.4646</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1907</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.0513</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0.6953</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>0.1114</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>0.0972</v>
+      </c>
+      <c r="J19" s="8" t="n">
+        <v>0.3047</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-0.0638</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>-0.0548</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9"/>
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.8174</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2374</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.1843</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.1385</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>0.8365</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>0.2394</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>0.1753</v>
+      </c>
+      <c r="J20" s="8" t="n">
+        <v>0.1635</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-0.0977</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>-0.0856</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.8958</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.1623</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.2423</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0.8961</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>0.2588</v>
+      </c>
+      <c r="J21" s="8" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-0.0589</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>-0.0525</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0.5983</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>-0.7671</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0.6584</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>0.1327</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v>0.3416</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>-0.1207</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9"/>
+      <c r="B23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0.7796</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>-0.7633</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.1145</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0.6606</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>0.2269</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>0.1979</v>
+      </c>
+      <c r="J23" s="8" t="n">
+        <v>0.3394</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-0.181</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>-0.1607</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9"/>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>-0.6819</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0.6654</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <v>0.6459</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v>0.3346</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-0.2545</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>-0.2486</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>2.6654</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.8906</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.6184</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0.4462</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>0.6235</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <v>1.1394</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>1.193</v>
+      </c>
+      <c r="J25" s="8" t="n">
+        <v>0.3765</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-0.2443</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>-0.2035</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.4169</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1792</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.0404</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0.1024</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>0.0825</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>-0.0428</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.6602</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.2189</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.0844</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0.0682</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <v>0.1399</v>
+      </c>
+      <c r="J27" s="8" t="n">
+        <v>0.3292</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>-0.0717</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>-0.0595</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>1.3548</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>-0.2907</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0.2102</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>0.8485</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <v>0.3415</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="J28" s="8" t="n">
+        <v>0.1515</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-0.1237</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>-0.1151</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>1.6817</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>-0.2859</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>0.8906</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <v>0.5299</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <v>0.4369</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>0.1094</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-0.0993</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <v>-0.0906</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0.3803</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>-0.1569</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.0202</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>0.5857</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <v>0.0968</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>0.0772</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>0.4143</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <v>-0.0408</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.6279</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.2127</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.0784</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0.0687</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>0.6762</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>0.1288</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-0.0668</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <v>-0.056</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
+      <c r="B32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>1.2646</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2692</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.2438</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0.1952</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>0.8444</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <v>0.3091</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>0.2302</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>0.1556</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-0.1105</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>-0.1046</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="6" t="n">
         <v>1.47</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D33" s="6" t="n">
         <v>-0.273</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E33" s="6" t="n">
         <v>0.405</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F33" s="6" t="n">
         <v>0.3733</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G33" s="7" t="n">
         <v>0.8929</v>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H33" s="7" t="n">
         <v>0.465</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I33" s="7" t="n">
         <v>0.4059</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J33" s="8" t="n">
         <v>0.1071</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K33" s="8" t="n">
         <v>-0.0957</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L33" s="8" t="n">
         <v>-0.0882</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
